--- a/02设计/V2.0 接口定义/CORE_WS_RW_007-布控任务查询与统计.xlsx
+++ b/02设计/V2.0 接口定义/CORE_WS_RW_007-布控任务查询与统计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -10,12 +10,12 @@
     <sheet name="接口定义" sheetId="2" r:id="rId1"/>
     <sheet name="修改记录" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="123">
   <si>
     <t>接口编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,11 +41,314 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模糊查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值为空或“pageFlag”表示需要分页，其它值表示不分页，获取所有数据列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索条件集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值为空默认每页10条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值为空默认第一页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每页条数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第几页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入参数表：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出参数表：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一页码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总条数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有上一页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有下一页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前第几页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageRows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true/false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasNext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布控通道数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布控时段开始日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布控时段开始时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布控时段开始分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布控时段截至日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布控时段截至时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每周哪几天布控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逗号分隔，如：1,2,3,4,5,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beginDateStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endDateStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beginHour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endHour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布控说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:关闭   1:布控中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:目标监视 2:区域监视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasPre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prePage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resultList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据类型</t>
+    <t>错误代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0表示调用正常，详见错误代码表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主返回数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalPages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总页数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一页码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beginMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布控时段截至分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模糊查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -57,118 +360,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>错误代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模糊查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0表示调用正常，详见错误代码表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值为空或“pageFlag”表示需要分页，其它值表示不分页，获取所有数据列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检索条件集合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值为空默认每页10条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值为空默认第一页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每页条数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第几页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分页标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入的查询条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入参数表：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出参数表：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一页码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总条数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有上一页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有下一页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前第几页</t>
+    <t>CORE_WS_RW_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布控任务查询与统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询全部布控任务，返回查询结果并统计目标人数、布控通道数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daySet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageRows</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -176,195 +416,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pageRows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true/false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hasNext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布控通道数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布控时段开始日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布控时段开始时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布控时段开始分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布控时段截至日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布控时段截至时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每周哪几天布控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布控时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逗号分隔，如：1,2,3,4,5,6,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beginDateStr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endDateStr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beginHour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endHour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jobType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布控说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:关闭   1:布控中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:目标监视 2:区域监视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hasPre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prePage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nextPage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resultList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0表示调用正常，详见错误代码表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主返回数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalPages</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总页数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上一页码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beginMin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endMin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布控时段截至分</t>
+    <t>pageFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://&lt;ip&gt;:&lt;port&gt;/facecore/jobs/query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -372,107 +440,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模糊查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CORE_WS_RW_007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布控任务查询与统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询全部布控任务，返回查询结果并统计目标人数、布控通道数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文博</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>objCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chanellCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>daySet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布空人UUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageRows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://&lt;ip&gt;:&lt;port&gt;/facecore/jobs/query</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必填项</t>
+    <t>channelCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布控人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beginHour2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beginMin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endHour2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endMin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按添加时间倒序排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objectCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeSectionTag</t>
+  </si>
+  <si>
+    <t>布控时段显示值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stiring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>methodId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -653,7 +692,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -678,15 +717,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,7 +778,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -780,10 +810,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -815,7 +844,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -991,28 +1019,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="4" customWidth="1"/>
     <col min="9" max="9" width="72.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1020,14 +1048,14 @@
       <c r="C1" s="20"/>
       <c r="D1" s="21"/>
       <c r="E1" s="22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
       <c r="I1" s="24"/>
     </row>
-    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
@@ -1035,14 +1063,14 @@
       <c r="C2" s="20"/>
       <c r="D2" s="21"/>
       <c r="E2" s="22" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="24"/>
     </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
@@ -1050,62 +1078,64 @@
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="24"/>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="19" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="22" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
       <c r="I4" s="24"/>
     </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="19" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="11" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="16"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E6" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -1116,175 +1146,170 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
     </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="2">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="2">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="B13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="2">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I14" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="2">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I15" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -1295,263 +1320,289 @@
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
     </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="2">
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I19" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="2">
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="2">
         <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="2">
         <v>4</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="H22" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="2">
         <v>5</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="H23" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="2">
         <v>6</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="H24" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="2">
         <v>7</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="H25" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="2">
         <v>8</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="H26" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="2">
         <v>9</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I27" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="2">
         <v>10</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="H28" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="2">
         <v>11</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" s="3"/>
+      <c r="H29" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I29" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="2">
         <v>12</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="H30" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="2">
         <v>13</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="H31" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="2">
         <v>14</v>
       </c>
@@ -1559,18 +1610,20 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="2">
         <v>15</v>
       </c>
@@ -1578,18 +1631,20 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="2">
         <v>16</v>
       </c>
@@ -1597,20 +1652,22 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H34" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I34" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="2">
         <v>17</v>
       </c>
@@ -1618,41 +1675,43 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I35" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="2">
         <v>18</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3" t="s">
-        <v>63</v>
+      <c r="E36" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="2">
         <v>19</v>
       </c>
@@ -1660,18 +1719,20 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="2">
         <v>20</v>
       </c>
@@ -1679,18 +1740,20 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="14" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="2">
         <v>21</v>
       </c>
@@ -1698,18 +1761,20 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="2">
         <v>22</v>
       </c>
@@ -1717,75 +1782,83 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="19.5" customHeight="1">
       <c r="A42" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="18.75" customHeight="1">
       <c r="A43" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="2">
         <v>26</v>
       </c>
@@ -1793,18 +1866,20 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="2">
         <v>27</v>
       </c>
@@ -1812,124 +1887,241 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" ht="19.5" customHeight="1">
       <c r="A46" s="2">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="14" t="s">
-        <v>103</v>
+      <c r="E46" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" ht="18.75" customHeight="1">
       <c r="A47" s="2">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="F48" s="3" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H48" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="2">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="2">
+        <v>28</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="2">
+        <v>29</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A52" s="2">
+        <v>30</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="2">
+        <v>31</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="2">
+        <v>32</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F54" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I54" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="1" ph="1"/>
-      <c r="D56" s="1" ph="1"/>
-      <c r="E56" s="1" ph="1"/>
-      <c r="F56" s="1" ph="1"/>
-      <c r="G56" s="1" ph="1"/>
-      <c r="H56" s="1" ph="1"/>
-      <c r="I56" s="1" ph="1"/>
-      <c r="J56" s="1" ph="1"/>
-    </row>
-    <row r="57" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="1" ph="1"/>
-      <c r="D57" s="1" ph="1"/>
-      <c r="E57" s="1" ph="1"/>
-      <c r="F57" s="1" ph="1"/>
-      <c r="G57" s="1" ph="1"/>
-      <c r="H57" s="1" ph="1"/>
-      <c r="I57" s="1" ph="1"/>
-      <c r="J57" s="1" ph="1"/>
-    </row>
-    <row r="58" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="1" ph="1"/>
-      <c r="D58" s="1" ph="1"/>
-      <c r="E58" s="1" ph="1"/>
-      <c r="F58" s="1" ph="1"/>
-      <c r="G58" s="1" ph="1"/>
-      <c r="H58" s="1" ph="1"/>
-      <c r="I58" s="1" ph="1"/>
-      <c r="J58" s="1" ph="1"/>
+    </row>
+    <row r="60" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="C60" s="1" ph="1"/>
+      <c r="D60" s="1" ph="1"/>
+      <c r="E60" s="1" ph="1"/>
+      <c r="F60" s="1" ph="1"/>
+      <c r="G60" s="1" ph="1"/>
+      <c r="H60" s="4" ph="1"/>
+      <c r="I60" s="1" ph="1"/>
+      <c r="J60" s="1" ph="1"/>
+    </row>
+    <row r="61" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="C61" s="1" ph="1"/>
+      <c r="D61" s="1" ph="1"/>
+      <c r="E61" s="1" ph="1"/>
+      <c r="F61" s="1" ph="1"/>
+      <c r="G61" s="1" ph="1"/>
+      <c r="H61" s="4" ph="1"/>
+      <c r="I61" s="1" ph="1"/>
+      <c r="J61" s="1" ph="1"/>
+    </row>
+    <row r="62" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="C62" s="1" ph="1"/>
+      <c r="D62" s="1" ph="1"/>
+      <c r="E62" s="1" ph="1"/>
+      <c r="F62" s="1" ph="1"/>
+      <c r="G62" s="1" ph="1"/>
+      <c r="H62" s="4" ph="1"/>
+      <c r="I62" s="1" ph="1"/>
+      <c r="J62" s="1" ph="1"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1951,95 +2143,96 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C2" s="8">
         <v>42944</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5">
       <c r="A3" s="9"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
